--- a/src/test/TestCaseExcelData/dubbo/com.newretail.logisticscenter.addressbasecenter.client.service.AddressbaseService11.xlsx
+++ b/src/test/TestCaseExcelData/dubbo/com.newretail.logisticscenter.addressbasecenter.client.service.AddressbaseService11.xlsx
@@ -1,8 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECC0539-DD9D-4D3A-8AB4-32CF84F2DE0C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,7 +368,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="A4" sqref="A4:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
